--- a/output/product1_ebay.xlsx
+++ b/output/product1_ebay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,91 +468,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Pro 128GB ( Unlocked) US E-Sim Version. Excellent</t>
+          <t>Apple iPhone 15 Pro 128GB Unlocked AT&amp;T T-Mobile Verizon Very Good Condition</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>US $854.99</t>
+          <t>US $854.95</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/ntAAAOSw~Ptl2OsD/s-l500.jpg</t>
+          <t>https://i.ebayimg.com/images/g/M8gAAOSwQORlnZb5/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Amazing Wireless</t>
+          <t>Supplytronics</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.4% positive</t>
+          <t>98.8% positive</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Excellent - Refurbished</t>
+          <t>Very Good - Refurbished</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Pro 128GB Unlocked AT&amp;T T-Mobile Verizon Very Good Condition</t>
+          <t>Apple iPhone 15 5G - 128GB - All Colors - Factory Unlocked -E SiM - Excellent</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>US $854.95</t>
+          <t>US $735.99</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/M8gAAOSwQORlnZb5/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/LXYAAOSw~KhlYBf-/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Supplytronics</t>
+          <t>Wireless Reseller</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.8% positive</t>
+          <t>99.3% positive</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Very Good - Refurbished</t>
+          <t>Excellent - Refurbished</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 5G - 128GB - All Colors - Factory Unlocked -E SiM - Excellent</t>
+          <t>Apple iPhone 15 256GB Factory Unlocked AT&amp;T T-Mobile Verizon Excellent Condition</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>US $735.99</t>
+          <t>US $734.95</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/LXYAAOSw~KhlYBf-/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/vOsAAOSwBMdleeze/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wireless Reseller</t>
+          <t>Supplytronics</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.3% positive</t>
+          <t>98.8% positive</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -564,32 +564,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 256GB Factory Unlocked AT&amp;T T-Mobile Verizon Excellent Condition</t>
+          <t>Apple iPhone 15 Pro 128GB Black Titanium Verizon Excellent Condition</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>US $734.95</t>
+          <t>US $719.99</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/vOsAAOSwBMdleeze/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/CmQAAOSwYwNlSmHh/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Supplytronics</t>
+          <t>ItsWorthMore</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.8% positive</t>
+          <t>98.9% positive</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Excellent - Refurbished</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
@@ -776,42 +776,10 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>99% positive</t>
+          <t>99.1% positive</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
-        <is>
-          <t>New</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Tempered Glass Screen Protector for iPhone 15 14 13 12 11 Pro X XR XS Max Plus</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>GBP 0.99</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>https://i.ebayimg.com/images/g/iwEAAOSw-5llCsSA/s-l1600.jpg</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>wilko-tech1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>99.6% positive</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
         <is>
           <t>New</t>
         </is>

--- a/output/product1_ebay.xlsx
+++ b/output/product1_ebay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,86 +468,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Pro 128GB Unlocked AT&amp;T T-Mobile Verizon Very Good Condition</t>
+          <t>Apple iPhone 14 Pro Max - 512 GB - Space Black (Unlocked)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>US $854.95</t>
+          <t>US $735.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/M8gAAOSwQORlnZb5/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/ixcAAOSw0wRj4pMr/s-l960.jpg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Supplytronics</t>
+          <t>4ddzs_11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.8% positive</t>
+          <t>Seller's other items</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Very Good - Refurbished</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 5G - 128GB - All Colors - Factory Unlocked -E SiM - Excellent</t>
+          <t>Apple iPhone 14 Pro Max - 128 GB - Deep Purple (T-Mobile)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>US $735.99</t>
+          <t>US $700.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/LXYAAOSw~KhlYBf-/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/XrsAAOSwoQVlyr6X/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wireless Reseller</t>
+          <t>nickshhs</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.3% positive</t>
+          <t>99.7% positive</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Excellent - Refurbished</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 256GB Factory Unlocked AT&amp;T T-Mobile Verizon Excellent Condition</t>
+          <t>iPhone 14 Pro Max - 256GB - Unlocked (Read Description) AH1076</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>US $734.95</t>
+          <t>US $693.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/vOsAAOSwBMdleeze/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/xgUAAOSwk7BlzSEX/s-l1600.png</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Supplytronics</t>
+          <t>Buyback Boss</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,34 +557,34 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Excellent - Refurbished</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Pro 128GB Black Titanium Verizon Excellent Condition</t>
+          <t>Apple iPhone 14 Pro - 512GB - Purple (Unlocked) (Read Description) ED1156</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>US $719.99</t>
+          <t>US $690.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/CmQAAOSwYwNlSmHh/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/NfQAAOSwIM1lPAGq/s-l1600.png</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ItsWorthMore</t>
+          <t>Buyback Boss</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.9% positive</t>
+          <t>98.8% positive</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -596,17 +596,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Plus 128GB Unlocked AT&amp;T T-Mobile Verizon Very Good Condition</t>
+          <t>Apple iPhone 14 Plus 128GB Unlocked AT&amp;T T-Mobile Verizon Excellent Condition</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>US $714.95</t>
+          <t>US $569.95</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/usgAAOSw3nZloFop/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/oWYAAOSwfRZlEa-l/s-l500.jpg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,56 +621,56 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Very Good - Refurbished</t>
+          <t>Excellent - Refurbished</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 - 128GB - Unlocked - Black - Excellent</t>
+          <t>Apple iPhone 14 - 128GB - Midnight (T-Mobile) - New Sealed - Apple Warranty</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>US $690.00</t>
+          <t>US $550.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/VaAAAOSwdoZlg0~6/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/72sAAOSwJKRl481y/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Buyback Boss</t>
+          <t>ai_quoc83</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>98.8% positive</t>
+          <t>99.6% positive</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Excellent - Refurbished</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 128GB Factory Unlocked AT&amp;T T-Mobile Verizon Very Good Condition</t>
+          <t>Apple iPhone 14 128GB Factory Unlocked AT&amp;T T-Mobile Verizon Excellent Condition</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>US $664.95</t>
+          <t>US $531.95</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/AbEAAOSw6aVlivIB/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/u3UAAOSwMkdkwnXP/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -685,103 +685,135 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Very Good - Refurbished</t>
+          <t>Excellent - Refurbished</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 128GB ( Unlocked) US E-Sim Version. Excellent</t>
+          <t>Apple iPhone 14 Plus 128GB Unlocked AT&amp;T T-Mobile Verizon Very Good Condition</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>US $654.99</t>
+          <t>US $531.95</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/VJUAAOSwwWZl2PI8/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/rSsAAOSwcGRlDcMb/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Amazing Wireless</t>
+          <t>Supplytronics</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>99.4% positive</t>
+          <t>98.8% positive</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Excellent - Refurbished</t>
+          <t>Very Good - Refurbished</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Pro Max 256GB Unlocked Excellent Condition - All Colors</t>
+          <t>Apple iPhone 14 Pro - 128gb - Black (Unlocked) (Read Description) 4708</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>US $1,249.99</t>
+          <t>US $400.00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/z3YAAOSwiKxlc1Nb/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/XgIAAOSwUGxlvvOw/s-l1600.png</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ItsWorthMore</t>
+          <t>Shopper Hive</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98.9% positive</t>
+          <t>100% positive</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Excellent - Refurbished</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Apple - iPhone 15 PRO MAX - 256gb - Unlocked - Factory Warranty - All Colors</t>
+          <t>BRAND NEW APPLE IPHONE 14 MIDNIGHT 128GB VERIZON One Year Warranty</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>US $1,179.99</t>
+          <t>US $350.00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/Lg8AAOSwCuNlC0yl/s-l500.jpg</t>
+          <t>https://i.ebayimg.com/images/g/ZfMAAOSwxy1l4SW8/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ALLDAYZIP</t>
+          <t>Karecon Estate</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>99.1% positive</t>
+          <t>98.9% positive</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Open box</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Apple iPhone 12 64GB White Unlocked EXCELLENT / MINT Condition A++++!</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>US $126.50</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://i.ebayimg.com/images/g/YWcAAOSwpcZl5S2Z/s-l1600.jpg</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>perfectfeedbacktx</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>100% positive</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Used</t>
         </is>
       </c>
     </row>

--- a/output/product1_ebay.xlsx
+++ b/output/product1_ebay.xlsx
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>US $350.00</t>
+          <t>US $360.00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">

--- a/output/product1_ebay.xlsx
+++ b/output/product1_ebay.xlsx
@@ -468,91 +468,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Pro Max - 512 GB - Space Black (Unlocked)</t>
+          <t>Apple iPhone 14 Pro Max 128GB Network Unlocked Very Good Condition</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>US $735.00</t>
+          <t>US $799.65</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/ixcAAOSw0wRj4pMr/s-l960.jpg</t>
+          <t>https://i.ebayimg.com/images/g/S6gAAOSw6ltlJILl/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4ddzs_11</t>
+          <t>DirectAuth</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Seller's other items</t>
+          <t>97.9% positive</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Very Good - Refurbished</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Pro Max - 128 GB - Deep Purple (T-Mobile)</t>
+          <t>Apple iPhone 14 Pro Max - 512 GB - Space Black (Unlocked)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>US $700.00</t>
+          <t>US $735.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/XrsAAOSwoQVlyr6X/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/ixcAAOSw0wRj4pMr/s-l960.jpg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>nickshhs</t>
+          <t>4ddzs_11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.7% positive</t>
+          <t>Seller's other items</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>iPhone 14 Pro Max - 256GB - Unlocked (Read Description) AH1076</t>
+          <t>Apple iPhone 14 Pro Max - 128 GB - Deep Purple (T-Mobile)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>US $693.00</t>
+          <t>US $700.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/xgUAAOSwk7BlzSEX/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/XrsAAOSwoQVlyr6X/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Buyback Boss</t>
+          <t>nickshhs</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.8% positive</t>
+          <t>99.7% positive</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -564,17 +564,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Pro - 512GB - Purple (Unlocked) (Read Description) ED1156</t>
+          <t>iPhone 14 Pro Max - 256GB - Unlocked (Read Description) AH1076</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>US $690.00</t>
+          <t>US $693.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/NfQAAOSwIM1lPAGq/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/xgUAAOSwk7BlzSEX/s-l1600.png</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -596,22 +596,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Plus 128GB Unlocked AT&amp;T T-Mobile Verizon Excellent Condition</t>
+          <t>Apple iPhone 14 Pro - 512GB - Purple (Unlocked) (Read Description) ED1156</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>US $569.95</t>
+          <t>US $690.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/oWYAAOSwfRZlEa-l/s-l500.jpg</t>
+          <t>https://i.ebayimg.com/images/g/NfQAAOSwIM1lPAGq/s-l1600.png</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Supplytronics</t>
+          <t>Buyback Boss</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -621,189 +621,189 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Excellent - Refurbished</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 - 128GB - Midnight (T-Mobile) - New Sealed - Apple Warranty</t>
+          <t>Apple iPhone 14 Pro A2650 128GB Space Black Unlocked Very Good Condition</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>US $550.00</t>
+          <t>US $673.28</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/72sAAOSwJKRl481y/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/ptAAAOSwpZtksY6t/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ai_quoc83</t>
+          <t>DirectAuth</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>99.6% positive</t>
+          <t>97.9% positive</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Very Good - Refurbished</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 128GB Factory Unlocked AT&amp;T T-Mobile Verizon Excellent Condition</t>
+          <t>Apple iPhone 14 Pro Max - 128GB - Gold (Unlocked)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>US $531.95</t>
+          <t>US $650.00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/u3UAAOSwMkdkwnXP/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/AuQAAOSwKyJl47Cl/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Supplytronics</t>
+          <t>dtschetter13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>98.8% positive</t>
+          <t>100% positive</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Excellent - Refurbished</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Plus 128GB Unlocked AT&amp;T T-Mobile Verizon Very Good Condition</t>
+          <t>Apple iPhone 14 Pro Max - 256 GB - Graphite (Unlocked) Apple Care Theft + 4/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>US $531.95</t>
+          <t>US $620.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/rSsAAOSwcGRlDcMb/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/ta4AAOSwLFJl1v73/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Supplytronics</t>
+          <t>asta_black_clover</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>98.8% positive</t>
+          <t>100% positive</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Very Good - Refurbished</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Pro - 128gb - Black (Unlocked) (Read Description) 4708</t>
+          <t>Apple iPhone 14 - 128GB - Midnight (T-Mobile) - New Sealed - Apple Warranty</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>US $400.00</t>
+          <t>US $550.00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/XgIAAOSwUGxlvvOw/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/72sAAOSwJKRl481y/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Shopper Hive</t>
+          <t>ai_quoc83</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>100% positive</t>
+          <t>99.6% positive</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRAND NEW APPLE IPHONE 14 MIDNIGHT 128GB VERIZON One Year Warranty</t>
+          <t>Apple iPhone 14 128GB Network Unlocked Excellent Condition</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>US $360.00</t>
+          <t>US $518.87</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/ZfMAAOSwxy1l4SW8/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/t4gAAOSwm-1lJIwm/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Karecon Estate</t>
+          <t>DirectAuth</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>98.9% positive</t>
+          <t>97.9% positive</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Open box</t>
+          <t>Excellent - Refurbished</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Apple iPhone 12 64GB White Unlocked EXCELLENT / MINT Condition A++++!</t>
+          <t>Apple iPhone 14 Pro - 128gb - Black (Unlocked) (Read Description) 4708</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>US $126.50</t>
+          <t>US $400.00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/YWcAAOSwpcZl5S2Z/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/XgIAAOSwUGxlvvOw/s-l1600.png</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>perfectfeedbacktx</t>
+          <t>Shopper Hive</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">

--- a/output/product1_ebay.xlsx
+++ b/output/product1_ebay.xlsx
@@ -468,91 +468,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Pro Max 128GB Network Unlocked Very Good Condition</t>
+          <t>Garmin Fenix 5 Premium Multisport GPS Watch 47mm (w/Red &amp; Orange bands, Charger)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>US $799.65</t>
+          <t>US $72.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/S6gAAOSw6ltlJILl/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/k2AAAOSwb8Vl3kWm/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DirectAuth</t>
+          <t>maybl8ter</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.9% positive</t>
+          <t>100% positive</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Very Good - Refurbished</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Pro Max - 512 GB - Space Black (Unlocked)</t>
+          <t>Garmin Fenix 3 GPS Watch, One Size - Gold/White</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>US $735.00</t>
+          <t>US $71.99</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/ixcAAOSw0wRj4pMr/s-l960.jpg</t>
+          <t>https://i.ebayimg.com/images/g/r~cAAOSwu8Jl1pU7/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4ddzs_11</t>
+          <t>Wasatchdailydeals</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Seller's other items</t>
+          <t>98.3% positive</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Pro Max - 128 GB - Deep Purple (T-Mobile)</t>
+          <t>Garmin Fenix 5X Plus 51mm Sapphire Black Case with Black Strap GPS Watch</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>US $700.00</t>
+          <t>US $71.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/XrsAAOSwoQVlyr6X/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/7gcAAOSw2wZl6MTn/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>nickshhs</t>
+          <t>activematrixx</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.7% positive</t>
+          <t>100% positive</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -564,59 +564,59 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>iPhone 14 Pro Max - 256GB - Unlocked (Read Description) AH1076</t>
+          <t>For Garmin Fenix 5 LCD Screen Display Digitizer Frame Cover Assembly Replacement</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>US $693.00</t>
+          <t>US $69.99/ea</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/xgUAAOSwk7BlzSEX/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/p84AAOSwyi9lOiVS/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Buyback Boss</t>
+          <t>electronicworld1616</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.8% positive</t>
+          <t>96.1% positive</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Pro - 512GB - Purple (Unlocked) (Read Description) ED1156</t>
+          <t>Garmin Fenix 7X Pro Sapphire Solar 51mm (Multisport Fitness Watch) Carbon Gray</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>US $690.00</t>
+          <t>US $649.99</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/NfQAAOSwIM1lPAGq/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/gIwAAOSw6dVl6PeA/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Buyback Boss</t>
+          <t>jaybrokers</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>98.8% positive</t>
+          <t>99.9% positive</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -628,91 +628,91 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Pro A2650 128GB Space Black Unlocked Very Good Condition</t>
+          <t>Garmin Fenix 7X Sapphire Solar Watch; BRAND NEW (OPEN BOX)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>US $673.28</t>
+          <t>US $560.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/ptAAAOSwpZtksY6t/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/3QYAAOSwOo5l1ByK/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DirectAuth</t>
+          <t>simav670</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>97.9% positive</t>
+          <t>100% positive</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Very Good - Refurbished</t>
+          <t>New other (see details)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Pro Max - 128GB - Gold (Unlocked)</t>
+          <t>Garmin fenix 6 Sapphire Carbon Gray DLC Watch with Black Band 010-02158-10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>US $650.00</t>
+          <t>US $359.99</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/AuQAAOSwKyJl47Cl/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/DWYAAOSwJzxjGnII/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>dtschetter13</t>
+          <t>GPS City</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>100% positive</t>
+          <t>99.5% positive</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>Certified - Refurbished</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Pro Max - 256 GB - Graphite (Unlocked) Apple Care Theft + 4/2025</t>
+          <t>Garmin Fenix 6 Sapphire GPS Multisport Smartwatch - Silver</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>US $620.00</t>
+          <t>US $290.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/ta4AAOSwLFJl1v73/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/wNEAAOSwY3Zl5faW/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>asta_black_clover</t>
+          <t>thelitt-8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>100% positive</t>
+          <t>97.3% positive</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -724,91 +724,91 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 - 128GB - Midnight (T-Mobile) - New Sealed - Apple Warranty</t>
+          <t>Garmin Fenix 6S Pro Black with Blue Band GPS Watch Very Good #23163</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>US $550.00</t>
+          <t>US $249.99</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/72sAAOSwJKRl481y/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/TycAAOSwGb9lzkJK/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ai_quoc83</t>
+          <t>TechPayout</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>99.6% positive</t>
+          <t>99.5% positive</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 128GB Network Unlocked Excellent Condition</t>
+          <t>Garmin Fenix Chronos Sapphire Titanium Watch + Stainless Band - Lowest Price</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>US $518.87</t>
+          <t>US $199.00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/t4gAAOSwm-1lJIwm/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/~XEAAOSwsJhlFIF-/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DirectAuth</t>
+          <t>Jim Beechwood111</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>97.9% positive</t>
+          <t>100% positive</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Excellent - Refurbished</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Pro - 128gb - Black (Unlocked) (Read Description) 4708</t>
+          <t>Garmin Fenix 5 Smartwatch 47mm Fiber-Reinforced Polymer Black Band Silver / Red</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>US $400.00</t>
+          <t>US $165.00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/XgIAAOSwUGxlvvOw/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/dVcAAOSwvwFlGxox/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Shopper Hive</t>
+          <t>eProDeals</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>100% positive</t>
+          <t>98.4% positive</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">

--- a/output/product1_ebay.xlsx
+++ b/output/product1_ebay.xlsx
@@ -468,27 +468,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Garmin Fenix 5 Premium Multisport GPS Watch 47mm (w/Red &amp; Orange bands, Charger)</t>
+          <t>iPhone 14 Pro Max - 512GB - Unlocked (Read Description) BC1064</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>US $72.00</t>
+          <t>US $795.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/k2AAAOSwb8Vl3kWm/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/6g0AAOSwQJZl-J2g/s-l1600.png</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>maybl8ter</t>
+          <t>Buyback Boss</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>100% positive</t>
+          <t>98.8% positive</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -500,27 +500,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Garmin Fenix 3 GPS Watch, One Size - Gold/White</t>
+          <t>Apple iPhone 14 Pro Max 128GB Network Unlocked Very Good Condition 1 Day! Look!</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>US $71.99</t>
+          <t>US $535.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/r~cAAOSwu8Jl1pU7/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/yqUAAOSwpwpmD1ac/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wasatchdailydeals</t>
+          <t>unakonda</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.3% positive</t>
+          <t>100% positive</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -532,27 +532,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Garmin Fenix 5X Plus 51mm Sapphire Black Case with Black Strap GPS Watch</t>
+          <t>iPhone 14 Pro - 256GB - Unlocked (Read Description) BE1003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>US $71.00</t>
+          <t>US $465.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/7gcAAOSw2wZl6MTn/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/tMsAAOSwEN5mCuoA/s-l1600.png</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>activematrixx</t>
+          <t>Buyback Boss</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>100% positive</t>
+          <t>98.8% positive</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -564,86 +564,86 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>For Garmin Fenix 5 LCD Screen Display Digitizer Frame Cover Assembly Replacement</t>
+          <t>iPhone 13 Pro - 256GB - Unlocked (Read Description) BD1295</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>US $69.99/ea</t>
+          <t>US $266.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/p84AAOSwyi9lOiVS/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/lnUAAOSwZoFmBuax/s-l1600.png</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>electronicworld1616</t>
+          <t>Buyback Boss</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>96.1% positive</t>
+          <t>98.8% positive</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Garmin Fenix 7X Pro Sapphire Solar 51mm (Multisport Fitness Watch) Carbon Gray</t>
+          <t>Apple iPhone 11 - 64GB All Colors - Unlocked - A2111 (CDMA + GSM)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>US $649.99</t>
+          <t>US $262.16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/gIwAAOSw6dVl6PeA/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/ukgAAOSwSTZjYqeH/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>jaybrokers</t>
+          <t>wirecent</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>99.9% positive</t>
+          <t>96.6% positive</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>Good - Refurbished</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Garmin Fenix 7X Sapphire Solar Watch; BRAND NEW (OPEN BOX)</t>
+          <t>Apple iPhone 13 mini - 256GB - Pink (UNLOCKED) Grade - C A2481 ~57664</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>US $560.00</t>
+          <t>US $260.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/3QYAAOSwOo5l1ByK/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/5wMAAOSw-yRl~hx6/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>simav670</t>
+          <t>jakessells</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -653,66 +653,66 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>New other (see details)</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Garmin fenix 6 Sapphire Carbon Gray DLC Watch with Black Band 010-02158-10</t>
+          <t>Apple iPhone 14 Pro - 128gb - Black (Unlocked) (Read Description) 4708</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>US $359.99</t>
+          <t>US $223.00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/DWYAAOSwJzxjGnII/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/XgIAAOSwUGxlvvOw/s-l1600.png</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>GPS City</t>
+          <t>Shopper Hive</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>99.5% positive</t>
+          <t>99.7% positive</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Certified - Refurbished</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Garmin Fenix 6 Sapphire GPS Multisport Smartwatch - Silver</t>
+          <t>iPhone 14 Pro Max - 256GB - Unlocked (Read Description) BD1373</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>US $290.00</t>
+          <t>US $215.50</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/wNEAAOSwY3Zl5faW/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/KDAAAOSwTOtmBwxD/s-l1600.png</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>thelitt-8</t>
+          <t>Buyback Boss</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>97.3% positive</t>
+          <t>98.8% positive</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -724,91 +724,91 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Garmin Fenix 6S Pro Black with Blue Band GPS Watch Very Good #23163</t>
+          <t>Apple iPhone XR 128GB Factory Unlocked AT&amp;T T-Mobile Verizon Excellent Condition</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>US $249.99</t>
+          <t>US $209.95</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/TycAAOSwGb9lzkJK/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/wNYAAOSwXaRlAHvZ/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TechPayout</t>
+          <t>Supplytronics</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>99.5% positive</t>
+          <t>98.7% positive</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>Excellent - Refurbished</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Garmin Fenix Chronos Sapphire Titanium Watch + Stainless Band - Lowest Price</t>
+          <t>Apple iPhone XR 256GB Factory Unlocked AT&amp;T T-Mobile Verizon Good Condition</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>US $199.00</t>
+          <t>US $186.95</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/~XEAAOSwsJhlFIF-/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/vNgAAOSwNDdlAHfM/s-l300.jpg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jim Beechwood111</t>
+          <t>Supplytronics</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>100% positive</t>
+          <t>98.7% positive</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>Good - Refurbished</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Garmin Fenix 5 Smartwatch 47mm Fiber-Reinforced Polymer Black Band Silver / Red</t>
+          <t>iPhone 13 Mini - 128GB - Unlocked (Read Description) BE1014</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>US $165.00</t>
+          <t>US $168.50</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/dVcAAOSwvwFlGxox/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/47MAAOSwz5NmCuyC/s-l1600.png</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>eProDeals</t>
+          <t>Buyback Boss</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>98.4% positive</t>
+          <t>98.8% positive</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">

--- a/output/product1_ebay.xlsx
+++ b/output/product1_ebay.xlsx
@@ -468,54 +468,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>iPhone 14 Pro Max - 512GB - Unlocked (Read Description) BC1064</t>
+          <t>For Samsung Galaxy S24 Ultra/S24 Plus/S24 Shockproof Case &amp; 2 Screen Protectors</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>US $795.00</t>
+          <t>US $8.99/ea</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/6g0AAOSwQJZl-J2g/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/4pkAAOSwu3BmHV-k/s-l300.jpg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Buyback Boss</t>
+          <t>easywholesales</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.8% positive</t>
+          <t>96.9% positive</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Pro Max 128GB Network Unlocked Very Good Condition 1 Day! Look!</t>
+          <t>Giovanni Genuine Leather Case for Galaxy S24 S23 S22 S21 S20 Plus Ultra Korea</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>US $535.00</t>
+          <t>US $69.90</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/yqUAAOSwpwpmD1ac/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/HikAAOSwFNZWxetl/s-l960.jpg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>unakonda</t>
+          <t>littleannika Korea</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,295 +525,295 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>iPhone 14 Pro - 256GB - Unlocked (Read Description) BE1003</t>
+          <t>For Samsung Galaxy S24 S23 Ultra/FE/Plus Case Shockproof Phone Cover + Screen</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>US $465.00</t>
+          <t>US $5.99/ea</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/tMsAAOSwEN5mCuoA/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/63IAAOSwX5NlwtHL/s-l300.jpg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Buyback Boss</t>
+          <t>STARSHOP18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.8% positive</t>
+          <t>98.7% positive</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>iPhone 13 Pro - 256GB - Unlocked (Read Description) BD1295</t>
+          <t>For Samsung Galaxy S24 S23 S22 S21 iPhone 15 Fast Charger 4FT Type-C Cable Lot</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>US $266.00</t>
+          <t>US $4.99/ea</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/lnUAAOSwZoFmBuax/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/UpAAAOSwKGxmH31m/s-l300.png</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Buyback Boss</t>
+          <t>Dyna_Blocks</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.8% positive</t>
+          <t>98.5% positive</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Apple iPhone 11 - 64GB All Colors - Unlocked - A2111 (CDMA + GSM)</t>
+          <t>S24 Ultra 7.3 8GB+256GB Factory Unlocked Android Phones 5G Global Smartphone</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>US $262.16</t>
+          <t>US $132.85</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/ukgAAOSwSTZjYqeH/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/P8UAAOSwYShl77nG/s-l300.jpg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>wirecent</t>
+          <t>cutelook2015</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>96.6% positive</t>
+          <t>98.5% positive</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Good - Refurbished</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apple iPhone 13 mini - 256GB - Pink (UNLOCKED) Grade - C A2481 ~57664</t>
+          <t>S24 Ultra 8+256GB Smartphone 7.3" Factory Unlocked Android Mobile Phones 6800mAh</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>US $260.00</t>
+          <t>US $125.22</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/5wMAAOSw-yRl~hx6/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/4pYAAOSwsqVl5ure/s-l300.jpg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>jakessells</t>
+          <t>tiee-51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>100% positive</t>
+          <t>93.3% positive</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 Pro - 128gb - Black (Unlocked) (Read Description) 4708</t>
+          <t>Samsung Galaxy S24 Ultra S928B 256GB GSM Unlocked International Version (New)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>US $223.00</t>
+          <t>US $1,109.99</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/XgIAAOSwUGxlvvOw/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/4DgAAOSwG5ZlrrS4/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Shopper Hive</t>
+          <t>Wireless Place</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>99.7% positive</t>
+          <t>98% positive</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>iPhone 14 Pro Max - 256GB - Unlocked (Read Description) BD1373</t>
+          <t>Samsung Galaxy S24 with T-Mobile 2-Year Service Agreement Required - $0.99 Fee</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>US $215.50</t>
+          <t>US $0.99</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/KDAAAOSwTOtmBwxD/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/6BcAAOSwLR1mBftJ/s-l300.jpg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Buyback Boss</t>
+          <t>partnersitgroup</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>98.8% positive</t>
+          <t>92.3% positive</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Apple iPhone XR 128GB Factory Unlocked AT&amp;T T-Mobile Verizon Excellent Condition</t>
+          <t>Armor Hard Phone Case For Samsung S23 , S24 Plus, S22 Ultra A14 A34 A54 Cover</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>US $209.95</t>
+          <t>GBP 3.99</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/wNYAAOSwXaRlAHvZ/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/srYAAOSwRExkEQti/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Supplytronics</t>
+          <t>sky-techno</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98.7% positive</t>
+          <t>98.5% positive</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Excellent - Refurbished</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Apple iPhone XR 256GB Factory Unlocked AT&amp;T T-Mobile Verizon Good Condition</t>
+          <t>Phone Case For Samsung Galaxy S24 Ultra S23 FE S22 Card Slot Holder Wallet Cover</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>US $186.95</t>
+          <t>GBP 3.99</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/vNgAAOSwNDdlAHfM/s-l300.jpg</t>
+          <t>https://i.ebayimg.com/images/g/9uEAAOSwFV9loP9M/s-l300.jpg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Supplytronics</t>
+          <t>upupday2015</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>98.7% positive</t>
+          <t>99% positive</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Good - Refurbished</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>iPhone 13 Mini - 128GB - Unlocked (Read Description) BE1014</t>
+          <t>Phone Case For Samsung S24 S23 Ultra S22 S21 FE A14 A13 A52 Butterfly Soft Cover</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>US $168.50</t>
+          <t>GBP 2.59</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/47MAAOSwz5NmCuyC/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/WuMAAOSw3X9l1apn/s-l300.jpg</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Buyback Boss</t>
+          <t>goleg22_8</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>98.8% positive</t>
+          <t>98.2% positive</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>New</t>
         </is>
       </c>
     </row>
